--- a/biology/Botanique/Rosa_×odorata/Rosa_×odorata.xlsx
+++ b/biology/Botanique/Rosa_×odorata/Rosa_×odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata</t>
+          <t>Rosa_×odorata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa ×odorata est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un hybride de rosiers, classé dans la section  des Chinenses (Ce qui est fautif : ce sont des hybrides cultivés chinois, et non des formes spontanées.).
 Cet hybride regroupe plusieurs (notho)variétés dont Rosa ×odorata nothovar. gigantea, le Rosier géant.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata</t>
+          <t>Rosa_×odorata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hybrides de Rosa ×odorata
 Rosiers Noisette : ‘Blush Noisette’ (Rosa moschata x ‘Old Blush’) et ses descendants, Noisette et thé-Noisette dont le célèbre ‘Madame Alfred Carrière’.
@@ -520,7 +534,7 @@
 Rosiers thé ou rosiers à odeur de thé : Rosa odorata × rosiers Bourbons ou rosiers Noisette,
 Rosiers thé-polyantha : rosiers thé × rosiers polyantha.
 Hybrides remontants : croisements de ces différents hybrides de Rosa chinensis,
-Hybrides de thé : hybrides remontants × rosiers thé dont le premier est ‘La France’ obtenu par Guillot en 1867[2].</t>
+Hybrides de thé : hybrides remontants × rosiers thé dont le premier est ‘La France’ obtenu par Guillot en 1867.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata</t>
+          <t>Rosa_×odorata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa indica var. odorata Andrews</t>
         </is>
